--- a/app/resources/Game_Data.xlsx
+++ b/app/resources/Game_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
@@ -10114,8 +10114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R403"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10449,7 +10449,7 @@
         <v>29</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f>E7+5</f>
         <v>25</v>
       </c>
       <c r="F8">
@@ -29809,7 +29809,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -47933,8 +47933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -50477,7 +50477,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -50522,7 +50522,7 @@
   <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/app/resources/Game_Data.xlsx
+++ b/app/resources/Game_Data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="400" windowWidth="25600" windowHeight="14380" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
     <sheet name="Experience_Adjustment_Factor" sheetId="8" r:id="rId2"/>
     <sheet name="Stat Growth" sheetId="2" r:id="rId3"/>
     <sheet name="Health" sheetId="18" r:id="rId4"/>
-    <sheet name="Races" sheetId="3" r:id="rId5"/>
+    <sheet name="Heritage" sheetId="3" r:id="rId5"/>
     <sheet name="Professions" sheetId="6" r:id="rId6"/>
     <sheet name="Magic" sheetId="15" r:id="rId7"/>
     <sheet name="Spell_Levels" sheetId="16" r:id="rId8"/>
@@ -461,9 +461,6 @@
     <t>spirit</t>
   </si>
   <si>
-    <t>race</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -732,6 +729,9 @@
   </si>
   <si>
     <t>Spell_Research</t>
+  </si>
+  <si>
+    <t>heritage</t>
   </si>
 </sst>
 </file>
@@ -2867,11 +2867,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2103841208"/>
-        <c:axId val="2131656920"/>
+        <c:axId val="2112979880"/>
+        <c:axId val="2112405784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2103841208"/>
+        <c:axId val="2112979880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2880,7 +2880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131656920"/>
+        <c:crossAx val="2112405784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2888,7 +2888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131656920"/>
+        <c:axId val="2112405784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2899,7 +2899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103841208"/>
+        <c:crossAx val="2112979880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3590,11 +3590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131617320"/>
-        <c:axId val="2131620312"/>
+        <c:axId val="2114302248"/>
+        <c:axId val="2114305224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131617320"/>
+        <c:axId val="2114302248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,7 +3603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131620312"/>
+        <c:crossAx val="2114305224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3611,7 +3611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131620312"/>
+        <c:axId val="2114305224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3622,7 +3622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131617320"/>
+        <c:crossAx val="2114302248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6113,11 +6113,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2105498840"/>
-        <c:axId val="2105315064"/>
+        <c:axId val="2114356984"/>
+        <c:axId val="2114359960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2105498840"/>
+        <c:axId val="2114356984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6126,7 +6126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105315064"/>
+        <c:crossAx val="2114359960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6134,7 +6134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105315064"/>
+        <c:axId val="2114359960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6145,7 +6145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105498840"/>
+        <c:crossAx val="2114356984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10007,10 +10007,10 @@
         <v>43</v>
       </c>
       <c r="H1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" t="s">
         <v>205</v>
-      </c>
-      <c r="I1" t="s">
-        <v>206</v>
       </c>
       <c r="K1" t="s">
         <v>77</v>
@@ -10040,10 +10040,10 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" t="s">
@@ -10139,11 +10139,11 @@
         <v>38.5</v>
       </c>
       <c r="S4" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C4*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S5/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C4*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S5/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>25</v>
       </c>
       <c r="T4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -10187,7 +10187,7 @@
         <v>46.5</v>
       </c>
       <c r="S5" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C5*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S6/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C5*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S6/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>31</v>
       </c>
     </row>
@@ -10232,7 +10232,7 @@
         <v>52.5</v>
       </c>
       <c r="S6" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C6*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S7/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C6*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S7/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>37</v>
       </c>
     </row>
@@ -10274,7 +10274,7 @@
         <v>58.75</v>
       </c>
       <c r="S7" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C7*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S8/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C7*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S8/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>43</v>
       </c>
     </row>
@@ -10319,7 +10319,7 @@
         <v>64.75</v>
       </c>
       <c r="S8" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C8*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S9/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C8*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S9/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>49</v>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
         <v>71.25</v>
       </c>
       <c r="S9" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C9*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S10/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C9*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S10/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>55</v>
       </c>
     </row>
@@ -10406,7 +10406,7 @@
         <v>78.75</v>
       </c>
       <c r="S10" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C10*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S11/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C10*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S11/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>61</v>
       </c>
     </row>
@@ -10451,7 +10451,7 @@
         <v>84.75</v>
       </c>
       <c r="S11" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C11*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S12/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C11*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S12/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>67</v>
       </c>
     </row>
@@ -10496,7 +10496,7 @@
         <v>90.75</v>
       </c>
       <c r="S12" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C12*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S13/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C12*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S13/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>73</v>
       </c>
     </row>
@@ -10538,7 +10538,7 @@
         <v>96.75</v>
       </c>
       <c r="S13" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C13*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S14/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C13*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S14/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>79</v>
       </c>
     </row>
@@ -10583,7 +10583,7 @@
         <v>103.25</v>
       </c>
       <c r="S14" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C14*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S15/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C14*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S15/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>85</v>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
         <v>109.25</v>
       </c>
       <c r="S15" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C15*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S16/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C15*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S16/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>91</v>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
         <v>116.75</v>
       </c>
       <c r="S16" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C16*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S17/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C16*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S17/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>97</v>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
         <v>122.75</v>
       </c>
       <c r="S17" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C17*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S18/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C17*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S18/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>103</v>
       </c>
     </row>
@@ -10760,7 +10760,7 @@
         <v>129.25</v>
       </c>
       <c r="S18" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C18*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S19/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C18*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S19/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>109</v>
       </c>
     </row>
@@ -10802,7 +10802,7 @@
         <v>135.25</v>
       </c>
       <c r="S19" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C19*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S20/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C19*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S20/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>115</v>
       </c>
     </row>
@@ -10847,7 +10847,7 @@
         <v>141.5</v>
       </c>
       <c r="S20" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C20*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S21/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C20*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S21/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>121</v>
       </c>
     </row>
@@ -10892,7 +10892,7 @@
         <v>149</v>
       </c>
       <c r="S21" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C21*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S22/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C21*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S22/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>127</v>
       </c>
     </row>
@@ -10934,7 +10934,7 @@
         <v>155</v>
       </c>
       <c r="S22" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C22*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S23/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C22*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S23/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>133</v>
       </c>
     </row>
@@ -10979,7 +10979,7 @@
         <v>161.5</v>
       </c>
       <c r="S23" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C23*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S24/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C23*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S24/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>139</v>
       </c>
     </row>
@@ -11024,7 +11024,7 @@
         <v>167.5</v>
       </c>
       <c r="S24" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C24*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S25/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C24*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S25/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>145</v>
       </c>
     </row>
@@ -11066,7 +11066,7 @@
         <v>173.5</v>
       </c>
       <c r="S25" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C25*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S26/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C25*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S26/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>151</v>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
         <v>179.5</v>
       </c>
       <c r="S26" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C26*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S27/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C26*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S27/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>157</v>
       </c>
     </row>
@@ -11156,7 +11156,7 @@
         <v>187</v>
       </c>
       <c r="S27" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C27*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S28/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C27*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S28/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>163</v>
       </c>
     </row>
@@ -11198,13 +11198,13 @@
         <v>193.5</v>
       </c>
       <c r="S28" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C28*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S29/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C28*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S29/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29">
         <f>Experience!C28</f>
@@ -11243,7 +11243,7 @@
         <v>199.5</v>
       </c>
       <c r="S29" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C29*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S30/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C29*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S30/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>175</v>
       </c>
     </row>
@@ -11288,7 +11288,7 @@
         <v>205.5</v>
       </c>
       <c r="S30" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C30*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S31/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C30*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S31/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>181</v>
       </c>
     </row>
@@ -11330,13 +11330,13 @@
         <v>211.5</v>
       </c>
       <c r="S31" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C31*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S32/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C31*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S32/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32">
         <f>Experience!C31</f>
@@ -11375,7 +11375,7 @@
         <v>217.5</v>
       </c>
       <c r="S32" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C32*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S33/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C32*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S33/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>193</v>
       </c>
     </row>
@@ -11420,7 +11420,7 @@
         <v>225</v>
       </c>
       <c r="S33" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C33*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S34/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C33*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S34/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>199</v>
       </c>
     </row>
@@ -11462,7 +11462,7 @@
         <v>231.75</v>
       </c>
       <c r="S34" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C34*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S35/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C34*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S35/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>205</v>
       </c>
     </row>
@@ -11504,7 +11504,7 @@
         <v>237.75</v>
       </c>
       <c r="S35" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C35*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S36/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C35*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S36/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>211</v>
       </c>
     </row>
@@ -11546,7 +11546,7 @@
         <v>243.75</v>
       </c>
       <c r="S36" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C36*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S37/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C36*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S37/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>217</v>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
         <v>249.75</v>
       </c>
       <c r="S37" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C37*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S38/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C37*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S38/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>223</v>
       </c>
     </row>
@@ -11636,7 +11636,7 @@
         <v>255.75</v>
       </c>
       <c r="S38" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C38*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S39/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C38*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S39/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>229</v>
       </c>
     </row>
@@ -11681,7 +11681,7 @@
         <v>262.25</v>
       </c>
       <c r="S39" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C39*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S40/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C39*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S40/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>235</v>
       </c>
     </row>
@@ -11726,7 +11726,7 @@
         <v>269.75</v>
       </c>
       <c r="S40" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C40*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S41/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C40*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S41/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>241</v>
       </c>
     </row>
@@ -11768,7 +11768,7 @@
         <v>275.75</v>
       </c>
       <c r="S41" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C41*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S42/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C41*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S42/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>247</v>
       </c>
     </row>
@@ -11810,7 +11810,7 @@
         <v>281.75</v>
       </c>
       <c r="S42" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C42*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S43/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C42*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S43/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>253</v>
       </c>
     </row>
@@ -11852,7 +11852,7 @@
         <v>287.75</v>
       </c>
       <c r="S43" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C43*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S44/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C43*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S44/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>259</v>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
         <v>294.25</v>
       </c>
       <c r="S44" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C44*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S45/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C44*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S45/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>265</v>
       </c>
     </row>
@@ -11936,7 +11936,7 @@
         <v>300.25</v>
       </c>
       <c r="S45" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C45*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S46/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C45*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S46/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>271</v>
       </c>
     </row>
@@ -11978,7 +11978,7 @@
         <v>307.75</v>
       </c>
       <c r="S46" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C46*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S47/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C46*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S47/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>277</v>
       </c>
     </row>
@@ -12020,7 +12020,7 @@
         <v>313.75</v>
       </c>
       <c r="S47" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C47*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S48/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C47*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S48/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>283</v>
       </c>
     </row>
@@ -12062,7 +12062,7 @@
         <v>320</v>
       </c>
       <c r="S48" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C48*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S49/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C48*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S49/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>289</v>
       </c>
     </row>
@@ -12104,7 +12104,7 @@
         <v>326</v>
       </c>
       <c r="S49" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C49*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S50/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C49*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S50/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>295</v>
       </c>
     </row>
@@ -12146,7 +12146,7 @@
         <v>332.5</v>
       </c>
       <c r="S50" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C50*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S51/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C50*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S51/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>301</v>
       </c>
     </row>
@@ -12188,7 +12188,7 @@
         <v>338.5</v>
       </c>
       <c r="S51" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C51*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S52/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C51*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S52/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>307</v>
       </c>
     </row>
@@ -12230,7 +12230,7 @@
         <v>346</v>
       </c>
       <c r="S52" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C52*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S53/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C52*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S53/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>313</v>
       </c>
     </row>
@@ -12272,7 +12272,7 @@
         <v>352</v>
       </c>
       <c r="S53" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C53*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S54/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C53*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S54/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>319</v>
       </c>
     </row>
@@ -12314,7 +12314,7 @@
         <v>358</v>
       </c>
       <c r="S54" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C54*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S55/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C54*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S55/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>325</v>
       </c>
     </row>
@@ -12356,7 +12356,7 @@
         <v>364.5</v>
       </c>
       <c r="S55" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C55*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S56/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C55*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S56/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>331</v>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
         <v>370.5</v>
       </c>
       <c r="S56" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C56*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S57/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C56*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S57/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>337</v>
       </c>
     </row>
@@ -12440,7 +12440,7 @@
         <v>376.5</v>
       </c>
       <c r="S57" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C57*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S58/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C57*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S58/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>343</v>
       </c>
     </row>
@@ -12482,7 +12482,7 @@
         <v>382.5</v>
       </c>
       <c r="S58" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C58*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S59/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C58*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S59/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>349</v>
       </c>
     </row>
@@ -12524,7 +12524,7 @@
         <v>390</v>
       </c>
       <c r="S59" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C59*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S60/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C59*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S60/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>412</v>
       </c>
     </row>
@@ -12566,7 +12566,7 @@
         <v>396</v>
       </c>
       <c r="S60" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C60*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S61/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C60*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S61/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>419</v>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
         <v>402.5</v>
       </c>
       <c r="S61" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C61*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S62/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C61*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S62/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>426</v>
       </c>
     </row>
@@ -12650,7 +12650,7 @@
         <v>408.5</v>
       </c>
       <c r="S62" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C62*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S63/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C62*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S63/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>433</v>
       </c>
     </row>
@@ -12692,7 +12692,7 @@
         <v>414.75</v>
       </c>
       <c r="S63" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C63*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S64/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C63*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S64/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>440</v>
       </c>
     </row>
@@ -12734,7 +12734,7 @@
         <v>420.75</v>
       </c>
       <c r="S64" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C64*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S65/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C64*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S65/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>447</v>
       </c>
     </row>
@@ -12776,7 +12776,7 @@
         <v>426.75</v>
       </c>
       <c r="S65" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C65*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S66/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C65*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S66/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>454</v>
       </c>
     </row>
@@ -12818,7 +12818,7 @@
         <v>434.25</v>
       </c>
       <c r="S66" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C66*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S67/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C66*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S67/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>461</v>
       </c>
     </row>
@@ -12860,7 +12860,7 @@
         <v>440.75</v>
       </c>
       <c r="S67" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C67*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S68/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C67*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S68/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>468</v>
       </c>
     </row>
@@ -12902,7 +12902,7 @@
         <v>446.75</v>
       </c>
       <c r="S68" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C68*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S69/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C68*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S69/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>475</v>
       </c>
     </row>
@@ -12944,7 +12944,7 @@
         <v>452.75</v>
       </c>
       <c r="S69" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C69*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S70/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C69*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S70/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>482</v>
       </c>
     </row>
@@ -12986,7 +12986,7 @@
         <v>458.75</v>
       </c>
       <c r="S70" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C70*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S71/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C70*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S71/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>489</v>
       </c>
     </row>
@@ -13028,7 +13028,7 @@
         <v>464.75</v>
       </c>
       <c r="S71" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C71*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S72/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C71*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S72/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>496</v>
       </c>
     </row>
@@ -13070,7 +13070,7 @@
         <v>470.75</v>
       </c>
       <c r="S72" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C72*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S73/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C72*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S73/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>503</v>
       </c>
     </row>
@@ -13112,7 +13112,7 @@
         <v>478.75</v>
       </c>
       <c r="S73" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C73*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S74/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C73*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S74/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>510</v>
       </c>
     </row>
@@ -13154,7 +13154,7 @@
         <v>484.75</v>
       </c>
       <c r="S74" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C74*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S75/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C74*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S75/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>517</v>
       </c>
     </row>
@@ -13196,7 +13196,7 @@
         <v>490.75</v>
       </c>
       <c r="S75" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C75*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S76/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C75*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S76/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>524</v>
       </c>
     </row>
@@ -13238,7 +13238,7 @@
         <v>496.75</v>
       </c>
       <c r="S76" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C76*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S77/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C76*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S77/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>531</v>
       </c>
     </row>
@@ -13280,7 +13280,7 @@
         <v>502.75</v>
       </c>
       <c r="S77" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C77*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S78/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C77*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S78/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>538</v>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
         <v>509</v>
       </c>
       <c r="S78" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C78*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S79/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C78*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S79/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>545</v>
       </c>
     </row>
@@ -13364,7 +13364,7 @@
         <v>515</v>
       </c>
       <c r="S79" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C79*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S80/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C79*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S80/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>552</v>
       </c>
     </row>
@@ -13406,7 +13406,7 @@
         <v>523</v>
       </c>
       <c r="S80" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C80*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S81/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C80*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S81/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>559</v>
       </c>
     </row>
@@ -13448,7 +13448,7 @@
         <v>529</v>
       </c>
       <c r="S81" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C81*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S82/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C81*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S82/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>566</v>
       </c>
     </row>
@@ -13490,7 +13490,7 @@
         <v>535</v>
       </c>
       <c r="S82" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C82*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S83/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C82*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S83/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>573</v>
       </c>
     </row>
@@ -13532,7 +13532,7 @@
         <v>541</v>
       </c>
       <c r="S83" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C83*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S84/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C83*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S84/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>580</v>
       </c>
     </row>
@@ -13574,7 +13574,7 @@
         <v>547</v>
       </c>
       <c r="S84" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C84*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S85/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C84*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S85/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>587</v>
       </c>
     </row>
@@ -13616,7 +13616,7 @@
         <v>553</v>
       </c>
       <c r="S85" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C85*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S86/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C85*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S86/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>594</v>
       </c>
     </row>
@@ -13658,7 +13658,7 @@
         <v>559.5</v>
       </c>
       <c r="S86" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C86*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S87/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C86*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S87/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>601</v>
       </c>
     </row>
@@ -13700,7 +13700,7 @@
         <v>567</v>
       </c>
       <c r="S87" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C87*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S88/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C87*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S88/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>608</v>
       </c>
     </row>
@@ -13742,7 +13742,7 @@
         <v>573</v>
       </c>
       <c r="S88" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C88*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S89/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C88*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S89/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>615</v>
       </c>
     </row>
@@ -13784,7 +13784,7 @@
         <v>579</v>
       </c>
       <c r="S89" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C89*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S90/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C89*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S90/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>622</v>
       </c>
     </row>
@@ -13826,7 +13826,7 @@
         <v>585</v>
       </c>
       <c r="S90" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C90*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S91/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C90*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S91/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>629</v>
       </c>
     </row>
@@ -13868,7 +13868,7 @@
         <v>591</v>
       </c>
       <c r="S91" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C91*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S92/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C91*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S92/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>636</v>
       </c>
     </row>
@@ -13910,7 +13910,7 @@
         <v>597.5</v>
       </c>
       <c r="S92" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C92*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S93/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C92*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S93/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>643</v>
       </c>
     </row>
@@ -13952,7 +13952,7 @@
         <v>603.5</v>
       </c>
       <c r="S93" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C93*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S94/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C93*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S94/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>650</v>
       </c>
     </row>
@@ -13994,7 +13994,7 @@
         <v>609.75</v>
       </c>
       <c r="S94" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C94*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S95/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C94*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S95/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>657</v>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
         <v>617.25</v>
       </c>
       <c r="S95" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C95*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S96/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C95*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S96/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>664</v>
       </c>
     </row>
@@ -14078,7 +14078,7 @@
         <v>623.25</v>
       </c>
       <c r="S96" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C96*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S97/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C96*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S97/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>671</v>
       </c>
     </row>
@@ -14120,7 +14120,7 @@
         <v>629.25</v>
       </c>
       <c r="S97" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C97*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S98/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C97*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S98/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>678</v>
       </c>
     </row>
@@ -14162,7 +14162,7 @@
         <v>635.25</v>
       </c>
       <c r="S98" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C98*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S99/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C98*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S99/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>685</v>
       </c>
     </row>
@@ -14204,7 +14204,7 @@
         <v>641.25</v>
       </c>
       <c r="S99" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C99*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S100/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C99*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S100/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>692</v>
       </c>
     </row>
@@ -14246,7 +14246,7 @@
         <v>647.25</v>
       </c>
       <c r="S100" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C100*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S101/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C100*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S101/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>699</v>
       </c>
     </row>
@@ -14288,7 +14288,7 @@
         <v>653.25</v>
       </c>
       <c r="S101" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C101*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S102/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C101*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S102/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>706</v>
       </c>
     </row>
@@ -14330,7 +14330,7 @@
         <v>660.75</v>
       </c>
       <c r="S102" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C102*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S103/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C102*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S103/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>713</v>
       </c>
     </row>
@@ -14372,13 +14372,13 @@
         <v>666.75</v>
       </c>
       <c r="S103" s="10">
-        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C103*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S104/10)+INDEX(Races!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14)))</f>
+        <f>$S$3+($A$27*Skills_Bonus!$N$4+INDEX(Skills_Bonus!$N$3:$N$403,MATCH(Attributes!C103*$A$27,Skills_Bonus!$B$3:$B$403,0)))*(TRUNC('Stat Growth'!S104/10)+INDEX(Heritage!$L$3:$L$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14)))</f>
         <v>720</v>
       </c>
     </row>
     <row r="127" spans="19:19">
       <c r="S127" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -14413,18 +14413,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" t="s">
         <v>177</v>
-      </c>
-      <c r="B1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -14435,7 +14435,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -14446,7 +14446,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -14457,7 +14457,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -14468,7 +14468,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -14479,7 +14479,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -14490,7 +14490,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -14501,7 +14501,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -14512,7 +14512,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -14523,7 +14523,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -14546,7 +14546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S403"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
@@ -14590,10 +14590,10 @@
         <v>119</v>
       </c>
       <c r="R1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -14631,10 +14631,10 @@
         <v>118</v>
       </c>
       <c r="R2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -33914,7 +33914,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
@@ -33943,7 +33943,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -33972,7 +33972,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -34001,7 +34001,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -34030,7 +34030,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -34059,7 +34059,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -34088,7 +34088,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -34117,7 +34117,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -34146,7 +34146,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -34175,7 +34175,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -34204,7 +34204,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -34260,45 +34260,45 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" t="s">
         <v>145</v>
       </c>
-      <c r="B1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>148</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>149</v>
       </c>
-      <c r="H1" t="s">
-        <v>150</v>
-      </c>
       <c r="I1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -34330,10 +34330,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" t="s">
-        <v>152</v>
       </c>
       <c r="C3">
         <v>27</v>
@@ -34365,10 +34365,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4">
         <v>45</v>
@@ -34400,10 +34400,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -34435,10 +34435,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6">
         <v>41</v>
@@ -34470,10 +34470,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <v>36</v>
@@ -34505,10 +34505,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -34540,10 +34540,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -34575,10 +34575,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10">
         <v>35</v>
@@ -34610,10 +34610,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -34645,10 +34645,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -34680,10 +34680,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13">
         <v>31</v>
@@ -34715,10 +34715,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14">
         <v>33</v>
@@ -34750,10 +34750,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -34785,10 +34785,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -34820,10 +34820,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17">
         <v>25</v>
@@ -34855,10 +34855,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -34890,10 +34890,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19">
         <v>33</v>
@@ -34925,10 +34925,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20">
         <v>30</v>
@@ -34960,10 +34960,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21">
         <v>29</v>
@@ -34998,7 +34998,7 @@
         <v>401</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C23">
         <v>30</v>
@@ -35056,36 +35056,36 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" t="s">
         <v>145</v>
       </c>
-      <c r="B1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>148</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>149</v>
-      </c>
-      <c r="H1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2">
         <v>0.2</v>
@@ -35108,10 +35108,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" t="s">
-        <v>152</v>
       </c>
       <c r="C3">
         <v>0.22500000000000001</v>
@@ -35134,10 +35134,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4">
         <v>0.35</v>
@@ -35160,10 +35160,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5">
         <v>0.4</v>
@@ -35186,10 +35186,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6">
         <v>0.4</v>
@@ -35212,10 +35212,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <v>0.45</v>
@@ -35238,10 +35238,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -35264,10 +35264,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -35290,10 +35290,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -35316,10 +35316,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" s="10">
         <v>0.2</v>
@@ -35342,10 +35342,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="10">
         <v>0.22500000000000001</v>
@@ -35368,10 +35368,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="10">
         <v>0.35</v>
@@ -35394,10 +35394,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="10">
         <v>0.4</v>
@@ -35420,10 +35420,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="10">
         <v>0.4</v>
@@ -35446,10 +35446,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="10">
         <v>0.45</v>
@@ -35472,10 +35472,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="10">
         <v>0.5</v>
@@ -35498,10 +35498,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" s="10">
         <v>0.5</v>
@@ -35524,10 +35524,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="10">
         <v>0.5</v>
@@ -35550,10 +35550,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="10">
         <v>0.5</v>
@@ -35576,10 +35576,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="10">
         <v>0.5</v>
@@ -35605,7 +35605,7 @@
         <v>401</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C23">
         <v>0.45</v>
@@ -35652,18 +35652,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
         <v>168</v>
-      </c>
-      <c r="C1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -35674,7 +35674,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -35685,7 +35685,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -35696,7 +35696,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5">
         <v>0.2</v>
@@ -35727,18 +35727,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
         <v>168</v>
-      </c>
-      <c r="C1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -35749,7 +35749,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3">
         <v>0.95</v>
@@ -35760,7 +35760,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -35771,7 +35771,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5">
         <v>0.85</v>
@@ -35782,7 +35782,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -35813,17 +35813,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -35852,10 +35852,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
         <v>161</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -36051,7 +36051,7 @@
         <v>27</v>
       </c>
       <c r="X1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y1" t="s">
         <v>28</v>
@@ -36313,35 +36313,35 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <f>ROUND((E4-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)*0</f>
+        <f>ROUND((E4-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)*0</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>ROUND((F4-$F$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F4-$F$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>ROUND((G4-$G$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G4-$G$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>ROUND((H4-$H$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H4-$H$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>ROUND((I4-$I$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I4-$I$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>ROUND((J4-$J$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J4-$J$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="X4">
-        <f>ROUND((K4-$K$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K4-$K$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="Y4">
-        <f>ROUND((L4-$L$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L4-$L$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA4">
@@ -36466,35 +36466,35 @@
         <v>66</v>
       </c>
       <c r="R5">
-        <f>ROUND((E5-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E5-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="S5">
-        <f>ROUND((F5-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F5-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>ROUND((G5-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G5-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>ROUND((H5-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H5-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>ROUND((I5-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I5-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>ROUND((J5-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J5-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="X5">
-        <f>ROUND((K5-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K5-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="Y5">
-        <f>ROUND((L5-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L5-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA5">
@@ -36616,35 +36616,35 @@
         <v>66</v>
       </c>
       <c r="R6">
-        <f>ROUND((E6-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E6-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="S6">
-        <f>ROUND((F6-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F6-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="T6">
-        <f>ROUND((G6-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G6-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="U6">
-        <f>ROUND((H6-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H6-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="V6">
-        <f>ROUND((I6-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I6-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>ROUND((J6-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J6-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="X6">
-        <f>ROUND((K6-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K6-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="Y6">
-        <f>ROUND((L6-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L6-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA6">
@@ -36766,35 +36766,35 @@
         <v>67</v>
       </c>
       <c r="R7">
-        <f>ROUND((E7-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E7-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="S7">
-        <f>ROUND((F7-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F7-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="T7">
-        <f>ROUND((G7-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G7-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="U7">
-        <f>ROUND((H7-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H7-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="V7">
-        <f>ROUND((I7-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I7-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>ROUND((J7-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J7-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="X7">
-        <f>ROUND((K7-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K7-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="Y7">
-        <f>ROUND((L7-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L7-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AA7">
@@ -36916,35 +36916,35 @@
         <v>67</v>
       </c>
       <c r="R8">
-        <f>ROUND((E8-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E8-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="S8">
-        <f>ROUND((F8-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F8-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="T8">
-        <f>ROUND((G8-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G8-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="U8">
-        <f>ROUND((H8-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H8-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="V8">
-        <f>ROUND((I8-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I8-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W8">
-        <f>ROUND((J8-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J8-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="X8">
-        <f>ROUND((K8-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K8-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="Y8">
-        <f>ROUND((L8-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L8-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AA8">
@@ -37066,35 +37066,35 @@
         <v>67</v>
       </c>
       <c r="R9">
-        <f>ROUND((E9-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E9-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="S9">
-        <f>ROUND((F9-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F9-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="T9">
-        <f>ROUND((G9-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G9-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="U9">
-        <f>ROUND((H9-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H9-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="V9">
-        <f>ROUND((I9-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I9-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W9">
-        <f>ROUND((J9-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J9-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="X9">
-        <f>ROUND((K9-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K9-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="Y9">
-        <f>ROUND((L9-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L9-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AA9">
@@ -37216,35 +37216,35 @@
         <v>67</v>
       </c>
       <c r="R10">
-        <f>ROUND((E10-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E10-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="S10">
-        <f>ROUND((F10-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F10-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="T10">
-        <f>ROUND((G10-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G10-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="U10">
-        <f>ROUND((H10-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H10-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="V10">
-        <f>ROUND((I10-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I10-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W10">
-        <f>ROUND((J10-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J10-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="X10">
-        <f>ROUND((K10-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K10-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="Y10">
-        <f>ROUND((L10-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L10-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AA10">
@@ -37366,35 +37366,35 @@
         <v>68</v>
       </c>
       <c r="R11">
-        <f>ROUND((E11-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E11-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="S11">
-        <f>ROUND((F11-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F11-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="T11">
-        <f>ROUND((G11-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G11-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="U11">
-        <f>ROUND((H11-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H11-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="V11">
-        <f>ROUND((I11-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I11-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W11">
-        <f>ROUND((J11-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J11-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="X11">
-        <f>ROUND((K11-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K11-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="Y11">
-        <f>ROUND((L11-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L11-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AA11">
@@ -37516,35 +37516,35 @@
         <v>68</v>
       </c>
       <c r="R12">
-        <f>ROUND((E12-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E12-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="S12">
-        <f>ROUND((F12-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F12-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="T12">
-        <f>ROUND((G12-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G12-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="U12">
-        <f>ROUND((H12-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H12-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="V12">
-        <f>ROUND((I12-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I12-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W12">
-        <f>ROUND((J12-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J12-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="X12">
-        <f>ROUND((K12-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K12-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="Y12">
-        <f>ROUND((L12-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L12-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AA12">
@@ -37666,35 +37666,35 @@
         <v>68</v>
       </c>
       <c r="R13">
-        <f>ROUND((E13-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E13-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="S13">
-        <f>ROUND((F13-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F13-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="T13">
-        <f>ROUND((G13-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G13-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="U13">
-        <f>ROUND((H13-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H13-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="V13">
-        <f>ROUND((I13-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I13-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W13">
-        <f>ROUND((J13-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J13-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="X13">
-        <f>ROUND((K13-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K13-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="Y13">
-        <f>ROUND((L13-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L13-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AA13">
@@ -37816,35 +37816,35 @@
         <v>68</v>
       </c>
       <c r="R14">
-        <f>ROUND((E14-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E14-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="S14">
-        <f>ROUND((F14-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F14-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="T14">
-        <f>ROUND((G14-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G14-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="U14">
-        <f>ROUND((H14-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H14-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="V14">
-        <f>ROUND((I14-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I14-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W14">
-        <f>ROUND((J14-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J14-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="X14">
-        <f>ROUND((K14-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K14-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="Y14">
-        <f>ROUND((L14-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L14-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AA14">
@@ -37966,35 +37966,35 @@
         <v>68</v>
       </c>
       <c r="R15">
-        <f>ROUND((E15-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E15-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="S15">
-        <f>ROUND((F15-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F15-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="T15">
-        <f>ROUND((G15-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G15-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="U15">
-        <f>ROUND((H15-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H15-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="V15">
-        <f>ROUND((I15-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I15-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W15">
-        <f>ROUND((J15-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J15-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="X15">
-        <f>ROUND((K15-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K15-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="Y15">
-        <f>ROUND((L15-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L15-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AA15">
@@ -38116,35 +38116,35 @@
         <v>69</v>
       </c>
       <c r="R16">
-        <f>ROUND((E16-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E16-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="S16">
-        <f>ROUND((F16-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F16-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="T16">
-        <f>ROUND((G16-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G16-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="U16">
-        <f>ROUND((H16-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H16-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="V16">
-        <f>ROUND((I16-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I16-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W16">
-        <f>ROUND((J16-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J16-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="X16">
-        <f>ROUND((K16-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K16-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="Y16">
-        <f>ROUND((L16-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L16-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AA16">
@@ -38266,35 +38266,35 @@
         <v>69</v>
       </c>
       <c r="R17">
-        <f>ROUND((E17-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E17-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="S17">
-        <f>ROUND((F17-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F17-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="T17">
-        <f>ROUND((G17-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G17-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="U17">
-        <f>ROUND((H17-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H17-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="V17">
-        <f>ROUND((I17-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I17-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W17">
-        <f>ROUND((J17-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J17-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="X17">
-        <f>ROUND((K17-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K17-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="Y17">
-        <f>ROUND((L17-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L17-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AA17">
@@ -38416,35 +38416,35 @@
         <v>69</v>
       </c>
       <c r="R18">
-        <f>ROUND((E18-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E18-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="S18">
-        <f>ROUND((F18-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F18-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="T18">
-        <f>ROUND((G18-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G18-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="U18">
-        <f>ROUND((H18-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H18-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="V18">
-        <f>ROUND((I18-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I18-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W18">
-        <f>ROUND((J18-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J18-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="X18">
-        <f>ROUND((K18-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K18-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="Y18">
-        <f>ROUND((L18-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L18-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AA18">
@@ -38566,35 +38566,35 @@
         <v>69</v>
       </c>
       <c r="R19">
-        <f>ROUND((E19-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E19-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="S19">
-        <f>ROUND((F19-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F19-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="T19">
-        <f>ROUND((G19-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G19-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="U19">
-        <f>ROUND((H19-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H19-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="V19">
-        <f>ROUND((I19-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I19-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W19">
-        <f>ROUND((J19-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J19-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="X19">
-        <f>ROUND((K19-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K19-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="Y19">
-        <f>ROUND((L19-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L19-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AA19">
@@ -38716,35 +38716,35 @@
         <v>70</v>
       </c>
       <c r="R20">
-        <f>ROUND((E20-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E20-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="S20">
-        <f>ROUND((F20-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F20-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="T20">
-        <f>ROUND((G20-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G20-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="U20">
-        <f>ROUND((H20-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H20-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="V20">
-        <f>ROUND((I20-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I20-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W20">
-        <f>ROUND((J20-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J20-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="X20">
-        <f>ROUND((K20-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K20-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="Y20">
-        <f>ROUND((L20-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L20-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AA20">
@@ -38866,35 +38866,35 @@
         <v>70</v>
       </c>
       <c r="R21">
-        <f>ROUND((E21-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E21-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="S21">
-        <f>ROUND((F21-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F21-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="T21">
-        <f>ROUND((G21-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G21-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="U21">
-        <f>ROUND((H21-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H21-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="V21">
-        <f>ROUND((I21-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I21-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W21">
-        <f>ROUND((J21-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J21-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="X21">
-        <f>ROUND((K21-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K21-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="Y21">
-        <f>ROUND((L21-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L21-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AA21">
@@ -39016,35 +39016,35 @@
         <v>70</v>
       </c>
       <c r="R22">
-        <f>ROUND((E22-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E22-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="S22">
-        <f>ROUND((F22-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F22-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="T22">
-        <f>ROUND((G22-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G22-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="U22">
-        <f>ROUND((H22-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H22-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="V22">
-        <f>ROUND((I22-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I22-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W22">
-        <f>ROUND((J22-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J22-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="X22">
-        <f>ROUND((K22-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K22-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="Y22">
-        <f>ROUND((L22-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L22-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AA22">
@@ -39166,35 +39166,35 @@
         <v>70</v>
       </c>
       <c r="R23">
-        <f>ROUND((E23-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E23-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="S23">
-        <f>ROUND((F23-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F23-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="T23">
-        <f>ROUND((G23-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G23-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="U23">
-        <f>ROUND((H23-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H23-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="V23">
-        <f>ROUND((I23-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I23-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W23">
-        <f>ROUND((J23-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J23-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="X23">
-        <f>ROUND((K23-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K23-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="Y23">
-        <f>ROUND((L23-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L23-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AA23">
@@ -39316,35 +39316,35 @@
         <v>70</v>
       </c>
       <c r="R24">
-        <f>ROUND((E24-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E24-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="S24">
-        <f>ROUND((F24-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F24-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="T24">
-        <f>ROUND((G24-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G24-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="U24">
-        <f>ROUND((H24-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H24-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="V24">
-        <f>ROUND((I24-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I24-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W24">
-        <f>ROUND((J24-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J24-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="X24">
-        <f>ROUND((K24-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K24-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="Y24">
-        <f>ROUND((L24-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L24-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AA24">
@@ -39466,35 +39466,35 @@
         <v>71</v>
       </c>
       <c r="R25">
-        <f>ROUND((E25-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E25-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="S25">
-        <f>ROUND((F25-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F25-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="T25">
-        <f>ROUND((G25-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G25-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="U25">
-        <f>ROUND((H25-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H25-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="V25">
-        <f>ROUND((I25-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I25-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W25">
-        <f>ROUND((J25-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J25-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="X25">
-        <f>ROUND((K25-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K25-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="Y25">
-        <f>ROUND((L25-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L25-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="AA25">
@@ -39616,35 +39616,35 @@
         <v>71</v>
       </c>
       <c r="R26">
-        <f>ROUND((E26-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E26-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="S26">
-        <f>ROUND((F26-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F26-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="T26">
-        <f>ROUND((G26-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G26-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="U26">
-        <f>ROUND((H26-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H26-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="V26">
-        <f>ROUND((I26-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I26-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W26">
-        <f>ROUND((J26-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J26-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="X26">
-        <f>ROUND((K26-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K26-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="Y26">
-        <f>ROUND((L26-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L26-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="AA26">
@@ -39766,35 +39766,35 @@
         <v>71</v>
       </c>
       <c r="R27">
-        <f>ROUND((E27-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E27-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="S27">
-        <f>ROUND((F27-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F27-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="T27">
-        <f>ROUND((G27-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G27-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="U27">
-        <f>ROUND((H27-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H27-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="V27">
-        <f>ROUND((I27-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I27-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W27">
-        <f>ROUND((J27-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J27-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="X27">
-        <f>ROUND((K27-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K27-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="Y27">
-        <f>ROUND((L27-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L27-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="AA27">
@@ -39916,35 +39916,35 @@
         <v>71</v>
       </c>
       <c r="R28">
-        <f>ROUND((E28-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E28-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="S28">
-        <f>ROUND((F28-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F28-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="T28">
-        <f>ROUND((G28-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G28-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="U28">
-        <f>ROUND((H28-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H28-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="V28">
-        <f>ROUND((I28-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I28-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W28">
-        <f>ROUND((J28-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J28-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="X28">
-        <f>ROUND((K28-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K28-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="Y28">
-        <f>ROUND((L28-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L28-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="AA28">
@@ -40066,35 +40066,35 @@
         <v>71</v>
       </c>
       <c r="R29">
-        <f>ROUND((E29-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E29-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="S29">
-        <f>ROUND((F29-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F29-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="T29">
-        <f>ROUND((G29-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G29-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="U29">
-        <f>ROUND((H29-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H29-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="V29">
-        <f>ROUND((I29-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I29-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W29">
-        <f>ROUND((J29-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J29-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="X29">
-        <f>ROUND((K29-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K29-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="Y29">
-        <f>ROUND((L29-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L29-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="AA29">
@@ -40216,35 +40216,35 @@
         <v>72</v>
       </c>
       <c r="R30">
-        <f>ROUND((E30-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E30-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="S30">
-        <f>ROUND((F30-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F30-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="T30">
-        <f>ROUND((G30-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G30-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="U30">
-        <f>ROUND((H30-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H30-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="V30">
-        <f>ROUND((I30-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I30-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W30">
-        <f>ROUND((J30-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J30-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="X30">
-        <f>ROUND((K30-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K30-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="Y30">
-        <f>ROUND((L30-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L30-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="AA30">
@@ -40366,35 +40366,35 @@
         <v>72</v>
       </c>
       <c r="R31">
-        <f>ROUND((E31-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E31-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="S31">
-        <f>ROUND((F31-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F31-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="T31">
-        <f>ROUND((G31-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G31-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="U31">
-        <f>ROUND((H31-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H31-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="V31">
-        <f>ROUND((I31-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I31-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W31">
-        <f>ROUND((J31-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J31-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="X31">
-        <f>ROUND((K31-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K31-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="Y31">
-        <f>ROUND((L31-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L31-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="AA31">
@@ -40516,35 +40516,35 @@
         <v>72</v>
       </c>
       <c r="R32">
-        <f>ROUND((E32-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E32-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="S32">
-        <f>ROUND((F32-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F32-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="T32">
-        <f>ROUND((G32-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G32-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="U32">
-        <f>ROUND((H32-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H32-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="V32">
-        <f>ROUND((I32-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I32-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W32">
-        <f>ROUND((J32-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J32-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="X32">
-        <f>ROUND((K32-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K32-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="Y32">
-        <f>ROUND((L32-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L32-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="AA32">
@@ -40666,35 +40666,35 @@
         <v>72</v>
       </c>
       <c r="R33">
-        <f>ROUND((E33-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E33-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="S33">
-        <f>ROUND((F33-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F33-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="T33">
-        <f>ROUND((G33-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G33-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="U33">
-        <f>ROUND((H33-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H33-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="V33">
-        <f>ROUND((I33-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I33-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W33">
-        <f>ROUND((J33-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J33-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="X33">
-        <f>ROUND((K33-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K33-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="Y33">
-        <f>ROUND((L33-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L33-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="AA33">
@@ -40816,35 +40816,35 @@
         <v>73</v>
       </c>
       <c r="R34">
-        <f>ROUND((E34-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E34-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="S34">
-        <f>ROUND((F34-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F34-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="T34">
-        <f>ROUND((G34-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G34-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="U34">
-        <f>ROUND((H34-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H34-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="V34">
-        <f>ROUND((I34-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I34-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W34">
-        <f>ROUND((J34-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J34-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="X34">
-        <f>ROUND((K34-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K34-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="Y34">
-        <f>ROUND((L34-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L34-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="AA34">
@@ -40966,35 +40966,35 @@
         <v>73</v>
       </c>
       <c r="R35">
-        <f>ROUND((E35-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E35-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="S35">
-        <f>ROUND((F35-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F35-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="T35">
-        <f>ROUND((G35-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G35-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="U35">
-        <f>ROUND((H35-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H35-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="V35">
-        <f>ROUND((I35-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I35-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W35">
-        <f>ROUND((J35-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J35-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="X35">
-        <f>ROUND((K35-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K35-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="Y35">
-        <f>ROUND((L35-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L35-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="AA35">
@@ -41116,35 +41116,35 @@
         <v>73</v>
       </c>
       <c r="R36">
-        <f>ROUND((E36-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E36-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="S36">
-        <f>ROUND((F36-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F36-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="T36">
-        <f>ROUND((G36-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G36-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="U36">
-        <f>ROUND((H36-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H36-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="V36">
-        <f>ROUND((I36-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I36-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W36">
-        <f>ROUND((J36-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J36-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="X36">
-        <f>ROUND((K36-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K36-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="Y36">
-        <f>ROUND((L36-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L36-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="AA36">
@@ -41266,35 +41266,35 @@
         <v>73</v>
       </c>
       <c r="R37">
-        <f>ROUND((E37-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E37-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="S37">
-        <f>ROUND((F37-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F37-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="T37">
-        <f>ROUND((G37-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G37-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="U37">
-        <f>ROUND((H37-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H37-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="V37">
-        <f>ROUND((I37-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I37-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W37">
-        <f>ROUND((J37-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J37-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="X37">
-        <f>ROUND((K37-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K37-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="Y37">
-        <f>ROUND((L37-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L37-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="AA37">
@@ -41416,35 +41416,35 @@
         <v>73</v>
       </c>
       <c r="R38">
-        <f>ROUND((E38-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E38-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="S38">
-        <f>ROUND((F38-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F38-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="T38">
-        <f>ROUND((G38-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G38-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="U38">
-        <f>ROUND((H38-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H38-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="V38">
-        <f>ROUND((I38-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I38-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W38">
-        <f>ROUND((J38-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J38-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="X38">
-        <f>ROUND((K38-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K38-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="Y38">
-        <f>ROUND((L38-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L38-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="AA38">
@@ -41566,35 +41566,35 @@
         <v>74</v>
       </c>
       <c r="R39">
-        <f>ROUND((E39-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E39-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="S39">
-        <f>ROUND((F39-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F39-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="T39">
-        <f>ROUND((G39-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G39-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="U39">
-        <f>ROUND((H39-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H39-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="V39">
-        <f>ROUND((I39-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I39-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W39">
-        <f>ROUND((J39-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J39-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="X39">
-        <f>ROUND((K39-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K39-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="Y39">
-        <f>ROUND((L39-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L39-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="AA39">
@@ -41716,35 +41716,35 @@
         <v>74</v>
       </c>
       <c r="R40">
-        <f>ROUND((E40-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E40-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="S40">
-        <f>ROUND((F40-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F40-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="T40">
-        <f>ROUND((G40-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G40-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="U40">
-        <f>ROUND((H40-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H40-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="V40">
-        <f>ROUND((I40-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I40-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W40">
-        <f>ROUND((J40-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J40-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="X40">
-        <f>ROUND((K40-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K40-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="Y40">
-        <f>ROUND((L40-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L40-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="AA40">
@@ -41866,35 +41866,35 @@
         <v>74</v>
       </c>
       <c r="R41">
-        <f>ROUND((E41-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E41-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="S41">
-        <f>ROUND((F41-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F41-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="T41">
-        <f>ROUND((G41-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G41-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="U41">
-        <f>ROUND((H41-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H41-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="V41">
-        <f>ROUND((I41-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I41-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W41">
-        <f>ROUND((J41-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J41-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="X41">
-        <f>ROUND((K41-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K41-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="Y41">
-        <f>ROUND((L41-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L41-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="AA41">
@@ -42016,35 +42016,35 @@
         <v>74</v>
       </c>
       <c r="R42">
-        <f>ROUND((E42-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E42-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="S42">
-        <f>ROUND((F42-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F42-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="T42">
-        <f>ROUND((G42-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G42-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="U42">
-        <f>ROUND((H42-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H42-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="V42">
-        <f>ROUND((I42-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I42-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W42">
-        <f>ROUND((J42-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J42-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="X42">
-        <f>ROUND((K42-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K42-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="Y42">
-        <f>ROUND((L42-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L42-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="AA42">
@@ -42166,35 +42166,35 @@
         <v>74</v>
       </c>
       <c r="R43">
-        <f>ROUND((E43-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E43-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="S43">
-        <f>ROUND((F43-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F43-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="T43">
-        <f>ROUND((G43-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G43-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="U43">
-        <f>ROUND((H43-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H43-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="V43">
-        <f>ROUND((I43-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I43-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W43">
-        <f>ROUND((J43-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J43-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="X43">
-        <f>ROUND((K43-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K43-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="Y43">
-        <f>ROUND((L43-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L43-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="AA43">
@@ -42316,35 +42316,35 @@
         <v>75</v>
       </c>
       <c r="R44">
-        <f>ROUND((E44-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E44-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="S44">
-        <f>ROUND((F44-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F44-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="T44">
-        <f>ROUND((G44-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G44-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="U44">
-        <f>ROUND((H44-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H44-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="V44">
-        <f>ROUND((I44-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I44-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W44">
-        <f>ROUND((J44-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J44-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="X44">
-        <f>ROUND((K44-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K44-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="Y44">
-        <f>ROUND((L44-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L44-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="AA44">
@@ -42466,35 +42466,35 @@
         <v>75</v>
       </c>
       <c r="R45">
-        <f>ROUND((E45-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E45-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="S45">
-        <f>ROUND((F45-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F45-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="T45">
-        <f>ROUND((G45-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G45-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="U45">
-        <f>ROUND((H45-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H45-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="V45">
-        <f>ROUND((I45-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I45-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W45">
-        <f>ROUND((J45-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J45-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="X45">
-        <f>ROUND((K45-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K45-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="Y45">
-        <f>ROUND((L45-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L45-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="AA45">
@@ -42616,35 +42616,35 @@
         <v>75</v>
       </c>
       <c r="R46">
-        <f>ROUND((E46-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E46-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="S46">
-        <f>ROUND((F46-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F46-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="T46">
-        <f>ROUND((G46-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G46-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="U46">
-        <f>ROUND((H46-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H46-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="V46">
-        <f>ROUND((I46-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I46-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W46">
-        <f>ROUND((J46-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J46-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="X46">
-        <f>ROUND((K46-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K46-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="Y46">
-        <f>ROUND((L46-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L46-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="AA46">
@@ -42766,35 +42766,35 @@
         <v>75</v>
       </c>
       <c r="R47">
-        <f>ROUND((E47-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E47-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="S47">
-        <f>ROUND((F47-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F47-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="T47">
-        <f>ROUND((G47-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G47-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="U47">
-        <f>ROUND((H47-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H47-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="V47">
-        <f>ROUND((I47-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I47-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W47">
-        <f>ROUND((J47-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J47-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="X47">
-        <f>ROUND((K47-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K47-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="Y47">
-        <f>ROUND((L47-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L47-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="AA47">
@@ -42916,35 +42916,35 @@
         <v>75</v>
       </c>
       <c r="R48">
-        <f>ROUND((E48-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E48-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="S48">
-        <f>ROUND((F48-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F48-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="T48">
-        <f>ROUND((G48-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G48-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="U48">
-        <f>ROUND((H48-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H48-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="V48">
-        <f>ROUND((I48-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I48-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>3</v>
       </c>
       <c r="W48">
-        <f>ROUND((J48-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J48-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="X48">
-        <f>ROUND((K48-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K48-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="Y48">
-        <f>ROUND((L48-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L48-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="AA48">
@@ -43066,35 +43066,35 @@
         <v>76</v>
       </c>
       <c r="R49">
-        <f>ROUND((E49-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E49-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="S49">
-        <f>ROUND((F49-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F49-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="T49">
-        <f>ROUND((G49-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G49-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="U49">
-        <f>ROUND((H49-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H49-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="V49">
-        <f>ROUND((I49-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I49-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W49">
-        <f>ROUND((J49-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J49-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="X49">
-        <f>ROUND((K49-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K49-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="Y49">
-        <f>ROUND((L49-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L49-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="AA49">
@@ -43216,35 +43216,35 @@
         <v>76</v>
       </c>
       <c r="R50">
-        <f>ROUND((E50-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E50-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="S50">
-        <f>ROUND((F50-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F50-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="T50">
-        <f>ROUND((G50-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G50-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="U50">
-        <f>ROUND((H50-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H50-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="V50">
-        <f>ROUND((I50-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I50-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W50">
-        <f>ROUND((J50-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J50-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="X50">
-        <f>ROUND((K50-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K50-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="Y50">
-        <f>ROUND((L50-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L50-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="AA50">
@@ -43366,35 +43366,35 @@
         <v>76</v>
       </c>
       <c r="R51">
-        <f>ROUND((E51-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E51-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="S51">
-        <f>ROUND((F51-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F51-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="T51">
-        <f>ROUND((G51-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G51-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="U51">
-        <f>ROUND((H51-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H51-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="V51">
-        <f>ROUND((I51-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I51-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W51">
-        <f>ROUND((J51-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J51-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="X51">
-        <f>ROUND((K51-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K51-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="Y51">
-        <f>ROUND((L51-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L51-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="AA51">
@@ -43516,35 +43516,35 @@
         <v>76</v>
       </c>
       <c r="R52">
-        <f>ROUND((E52-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E52-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="S52">
-        <f>ROUND((F52-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F52-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="T52">
-        <f>ROUND((G52-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G52-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="U52">
-        <f>ROUND((H52-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H52-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="V52">
-        <f>ROUND((I52-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I52-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W52">
-        <f>ROUND((J52-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J52-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="X52">
-        <f>ROUND((K52-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K52-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="Y52">
-        <f>ROUND((L52-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L52-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="AA52">
@@ -43666,35 +43666,35 @@
         <v>76</v>
       </c>
       <c r="R53">
-        <f>ROUND((E53-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E53-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="S53">
-        <f>ROUND((F53-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F53-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="T53">
-        <f>ROUND((G53-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G53-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="U53">
-        <f>ROUND((H53-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H53-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="V53">
-        <f>ROUND((I53-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I53-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W53">
-        <f>ROUND((J53-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J53-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="X53">
-        <f>ROUND((K53-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K53-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="Y53">
-        <f>ROUND((L53-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L53-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="AA53">
@@ -43816,35 +43816,35 @@
         <v>77</v>
       </c>
       <c r="R54">
-        <f>ROUND((E54-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E54-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="S54">
-        <f>ROUND((F54-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F54-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="T54">
-        <f>ROUND((G54-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G54-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="U54">
-        <f>ROUND((H54-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H54-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="V54">
-        <f>ROUND((I54-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I54-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W54">
-        <f>ROUND((J54-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J54-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="X54">
-        <f>ROUND((K54-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K54-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="Y54">
-        <f>ROUND((L54-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L54-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="AA54">
@@ -43966,35 +43966,35 @@
         <v>77</v>
       </c>
       <c r="R55">
-        <f>ROUND((E55-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E55-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="S55">
-        <f>ROUND((F55-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F55-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="T55">
-        <f>ROUND((G55-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G55-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="U55">
-        <f>ROUND((H55-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H55-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="V55">
-        <f>ROUND((I55-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I55-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W55">
-        <f>ROUND((J55-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J55-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="X55">
-        <f>ROUND((K55-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K55-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="Y55">
-        <f>ROUND((L55-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L55-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="AA55">
@@ -44116,35 +44116,35 @@
         <v>77</v>
       </c>
       <c r="R56">
-        <f>ROUND((E56-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E56-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="S56">
-        <f>ROUND((F56-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F56-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="T56">
-        <f>ROUND((G56-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G56-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="U56">
-        <f>ROUND((H56-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H56-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="V56">
-        <f>ROUND((I56-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I56-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W56">
-        <f>ROUND((J56-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J56-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="X56">
-        <f>ROUND((K56-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K56-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="Y56">
-        <f>ROUND((L56-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L56-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="AA56">
@@ -44266,35 +44266,35 @@
         <v>77</v>
       </c>
       <c r="R57">
-        <f>ROUND((E57-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E57-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="S57">
-        <f>ROUND((F57-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F57-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="T57">
-        <f>ROUND((G57-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G57-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="U57">
-        <f>ROUND((H57-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H57-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="V57">
-        <f>ROUND((I57-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I57-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W57">
-        <f>ROUND((J57-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J57-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="X57">
-        <f>ROUND((K57-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K57-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="Y57">
-        <f>ROUND((L57-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L57-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="AA57">
@@ -44416,35 +44416,35 @@
         <v>77</v>
       </c>
       <c r="R58">
-        <f>ROUND((E58-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E58-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="S58">
-        <f>ROUND((F58-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F58-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="T58">
-        <f>ROUND((G58-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G58-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="U58">
-        <f>ROUND((H58-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H58-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="V58">
-        <f>ROUND((I58-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I58-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W58">
-        <f>ROUND((J58-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J58-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="X58">
-        <f>ROUND((K58-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K58-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="Y58">
-        <f>ROUND((L58-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L58-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="AA58">
@@ -44566,35 +44566,35 @@
         <v>78</v>
       </c>
       <c r="R59">
-        <f>ROUND((E59-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E59-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="S59">
-        <f>ROUND((F59-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F59-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="T59">
-        <f>ROUND((G59-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G59-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="U59">
-        <f>ROUND((H59-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H59-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="V59">
-        <f>ROUND((I59-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I59-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W59">
-        <f>ROUND((J59-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J59-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="X59">
-        <f>ROUND((K59-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K59-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="Y59">
-        <f>ROUND((L59-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L59-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="AA59">
@@ -44716,35 +44716,35 @@
         <v>78</v>
       </c>
       <c r="R60">
-        <f>ROUND((E60-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E60-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="S60">
-        <f>ROUND((F60-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F60-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="T60">
-        <f>ROUND((G60-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G60-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="U60">
-        <f>ROUND((H60-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H60-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="V60">
-        <f>ROUND((I60-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I60-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W60">
-        <f>ROUND((J60-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J60-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="X60">
-        <f>ROUND((K60-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K60-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="Y60">
-        <f>ROUND((L60-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L60-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="AA60">
@@ -44866,35 +44866,35 @@
         <v>78</v>
       </c>
       <c r="R61">
-        <f>ROUND((E61-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E61-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="S61">
-        <f>ROUND((F61-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F61-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="T61">
-        <f>ROUND((G61-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G61-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="U61">
-        <f>ROUND((H61-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H61-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="V61">
-        <f>ROUND((I61-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I61-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W61">
-        <f>ROUND((J61-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J61-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="X61">
-        <f>ROUND((K61-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K61-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="Y61">
-        <f>ROUND((L61-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L61-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="AA61">
@@ -45016,35 +45016,35 @@
         <v>78</v>
       </c>
       <c r="R62">
-        <f>ROUND((E62-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E62-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="S62">
-        <f>ROUND((F62-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F62-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="T62">
-        <f>ROUND((G62-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G62-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="U62">
-        <f>ROUND((H62-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H62-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="V62">
-        <f>ROUND((I62-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I62-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W62">
-        <f>ROUND((J62-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J62-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="X62">
-        <f>ROUND((K62-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K62-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="Y62">
-        <f>ROUND((L62-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L62-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="AA62">
@@ -45166,35 +45166,35 @@
         <v>78</v>
       </c>
       <c r="R63">
-        <f>ROUND((E63-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E63-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="S63">
-        <f>ROUND((F63-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F63-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="T63">
-        <f>ROUND((G63-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G63-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="U63">
-        <f>ROUND((H63-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H63-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="V63">
-        <f>ROUND((I63-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I63-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>4</v>
       </c>
       <c r="W63">
-        <f>ROUND((J63-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J63-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="X63">
-        <f>ROUND((K63-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K63-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="Y63">
-        <f>ROUND((L63-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L63-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="AA63">
@@ -45316,35 +45316,35 @@
         <v>78</v>
       </c>
       <c r="R64">
-        <f>ROUND((E64-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E64-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="S64">
-        <f>ROUND((F64-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F64-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="T64">
-        <f>ROUND((G64-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G64-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="U64">
-        <f>ROUND((H64-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H64-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="V64">
-        <f>ROUND((I64-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I64-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W64">
-        <f>ROUND((J64-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J64-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="X64">
-        <f>ROUND((K64-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K64-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="Y64">
-        <f>ROUND((L64-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L64-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="AA64">
@@ -45466,35 +45466,35 @@
         <v>79</v>
       </c>
       <c r="R65">
-        <f>ROUND((E65-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E65-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="S65">
-        <f>ROUND((F65-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F65-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="T65">
-        <f>ROUND((G65-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G65-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="U65">
-        <f>ROUND((H65-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H65-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="V65">
-        <f>ROUND((I65-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I65-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W65">
-        <f>ROUND((J65-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J65-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="X65">
-        <f>ROUND((K65-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K65-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="Y65">
-        <f>ROUND((L65-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L65-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="AA65">
@@ -45616,35 +45616,35 @@
         <v>79</v>
       </c>
       <c r="R66">
-        <f>ROUND((E66-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E66-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="S66">
-        <f>ROUND((F66-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F66-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="T66">
-        <f>ROUND((G66-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G66-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="U66">
-        <f>ROUND((H66-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H66-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="V66">
-        <f>ROUND((I66-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I66-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W66">
-        <f>ROUND((J66-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J66-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="X66">
-        <f>ROUND((K66-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K66-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="Y66">
-        <f>ROUND((L66-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L66-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="AA66">
@@ -45766,35 +45766,35 @@
         <v>79</v>
       </c>
       <c r="R67">
-        <f>ROUND((E67-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E67-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="S67">
-        <f>ROUND((F67-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F67-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="T67">
-        <f>ROUND((G67-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G67-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="U67">
-        <f>ROUND((H67-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H67-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="V67">
-        <f>ROUND((I67-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I67-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W67">
-        <f>ROUND((J67-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J67-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="X67">
-        <f>ROUND((K67-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K67-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="Y67">
-        <f>ROUND((L67-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L67-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="AA67">
@@ -45916,35 +45916,35 @@
         <v>79</v>
       </c>
       <c r="R68">
-        <f>ROUND((E68-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E68-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="S68">
-        <f>ROUND((F68-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F68-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="T68">
-        <f>ROUND((G68-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G68-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="U68">
-        <f>ROUND((H68-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H68-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="V68">
-        <f>ROUND((I68-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I68-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W68">
-        <f>ROUND((J68-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J68-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="X68">
-        <f>ROUND((K68-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K68-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="Y68">
-        <f>ROUND((L68-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L68-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="AA68">
@@ -46066,35 +46066,35 @@
         <v>79</v>
       </c>
       <c r="R69">
-        <f>ROUND((E69-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E69-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="S69">
-        <f>ROUND((F69-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F69-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="T69">
-        <f>ROUND((G69-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G69-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="U69">
-        <f>ROUND((H69-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H69-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="V69">
-        <f>ROUND((I69-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I69-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W69">
-        <f>ROUND((J69-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J69-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="X69">
-        <f>ROUND((K69-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K69-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="Y69">
-        <f>ROUND((L69-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L69-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="AA69">
@@ -46216,35 +46216,35 @@
         <v>80</v>
       </c>
       <c r="R70">
-        <f>ROUND((E70-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E70-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="S70">
-        <f>ROUND((F70-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F70-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="T70">
-        <f>ROUND((G70-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G70-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="U70">
-        <f>ROUND((H70-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H70-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="V70">
-        <f>ROUND((I70-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I70-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W70">
-        <f>ROUND((J70-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J70-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="X70">
-        <f>ROUND((K70-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K70-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="Y70">
-        <f>ROUND((L70-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L70-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="AA70">
@@ -46366,35 +46366,35 @@
         <v>80</v>
       </c>
       <c r="R71">
-        <f>ROUND((E71-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E71-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="S71">
-        <f>ROUND((F71-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F71-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="T71">
-        <f>ROUND((G71-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G71-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="U71">
-        <f>ROUND((H71-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H71-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="V71">
-        <f>ROUND((I71-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I71-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W71">
-        <f>ROUND((J71-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J71-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="X71">
-        <f>ROUND((K71-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K71-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="Y71">
-        <f>ROUND((L71-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L71-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="AA71">
@@ -46516,35 +46516,35 @@
         <v>80</v>
       </c>
       <c r="R72">
-        <f>ROUND((E72-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E72-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="S72">
-        <f>ROUND((F72-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F72-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="T72">
-        <f>ROUND((G72-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G72-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="U72">
-        <f>ROUND((H72-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H72-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="V72">
-        <f>ROUND((I72-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I72-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W72">
-        <f>ROUND((J72-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J72-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="X72">
-        <f>ROUND((K72-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K72-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="Y72">
-        <f>ROUND((L72-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L72-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="AA72">
@@ -46666,35 +46666,35 @@
         <v>80</v>
       </c>
       <c r="R73">
-        <f>ROUND((E73-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E73-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="S73">
-        <f>ROUND((F73-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F73-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="T73">
-        <f>ROUND((G73-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G73-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="U73">
-        <f>ROUND((H73-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H73-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>11</v>
       </c>
       <c r="V73">
-        <f>ROUND((I73-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I73-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W73">
-        <f>ROUND((J73-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J73-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="X73">
-        <f>ROUND((K73-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K73-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="Y73">
-        <f>ROUND((L73-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L73-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="AA73">
@@ -46816,35 +46816,35 @@
         <v>80</v>
       </c>
       <c r="R74">
-        <f>ROUND((E74-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E74-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>19</v>
       </c>
       <c r="S74">
-        <f>ROUND((F74-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F74-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="T74">
-        <f>ROUND((G74-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G74-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="U74">
-        <f>ROUND((H74-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H74-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="V74">
-        <f>ROUND((I74-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I74-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W74">
-        <f>ROUND((J74-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J74-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="X74">
-        <f>ROUND((K74-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K74-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="Y74">
-        <f>ROUND((L74-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L74-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="AA74">
@@ -46966,35 +46966,35 @@
         <v>81</v>
       </c>
       <c r="R75">
-        <f>ROUND((E75-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E75-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>19</v>
       </c>
       <c r="S75">
-        <f>ROUND((F75-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F75-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="T75">
-        <f>ROUND((G75-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G75-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="U75">
-        <f>ROUND((H75-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H75-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="V75">
-        <f>ROUND((I75-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I75-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W75">
-        <f>ROUND((J75-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J75-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="X75">
-        <f>ROUND((K75-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K75-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="Y75">
-        <f>ROUND((L75-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L75-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="AA75">
@@ -47116,35 +47116,35 @@
         <v>81</v>
       </c>
       <c r="R76">
-        <f>ROUND((E76-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E76-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>19</v>
       </c>
       <c r="S76">
-        <f>ROUND((F76-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F76-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="T76">
-        <f>ROUND((G76-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G76-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="U76">
-        <f>ROUND((H76-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H76-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="V76">
-        <f>ROUND((I76-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I76-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W76">
-        <f>ROUND((J76-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J76-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="X76">
-        <f>ROUND((K76-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K76-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="Y76">
-        <f>ROUND((L76-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L76-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="AA76">
@@ -47266,35 +47266,35 @@
         <v>81</v>
       </c>
       <c r="R77">
-        <f>ROUND((E77-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E77-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>19</v>
       </c>
       <c r="S77">
-        <f>ROUND((F77-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F77-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="T77">
-        <f>ROUND((G77-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G77-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="U77">
-        <f>ROUND((H77-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H77-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="V77">
-        <f>ROUND((I77-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I77-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W77">
-        <f>ROUND((J77-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J77-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="X77">
-        <f>ROUND((K77-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K77-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="Y77">
-        <f>ROUND((L77-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L77-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="AA77">
@@ -47416,35 +47416,35 @@
         <v>81</v>
       </c>
       <c r="R78">
-        <f>ROUND((E78-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E78-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>19</v>
       </c>
       <c r="S78">
-        <f>ROUND((F78-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F78-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="T78">
-        <f>ROUND((G78-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G78-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="U78">
-        <f>ROUND((H78-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H78-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="V78">
-        <f>ROUND((I78-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I78-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>5</v>
       </c>
       <c r="W78">
-        <f>ROUND((J78-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J78-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="X78">
-        <f>ROUND((K78-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K78-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="Y78">
-        <f>ROUND((L78-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L78-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="AA78">
@@ -47566,35 +47566,35 @@
         <v>81</v>
       </c>
       <c r="R79">
-        <f>ROUND((E79-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E79-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>19</v>
       </c>
       <c r="S79">
-        <f>ROUND((F79-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F79-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="T79">
-        <f>ROUND((G79-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G79-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="U79">
-        <f>ROUND((H79-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H79-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="V79">
-        <f>ROUND((I79-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I79-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W79">
-        <f>ROUND((J79-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J79-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="X79">
-        <f>ROUND((K79-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K79-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="Y79">
-        <f>ROUND((L79-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L79-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="AA79">
@@ -47716,35 +47716,35 @@
         <v>81</v>
       </c>
       <c r="R80">
-        <f>ROUND((E80-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E80-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>19</v>
       </c>
       <c r="S80">
-        <f>ROUND((F80-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F80-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="T80">
-        <f>ROUND((G80-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G80-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="U80">
-        <f>ROUND((H80-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H80-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>12</v>
       </c>
       <c r="V80">
-        <f>ROUND((I80-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I80-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W80">
-        <f>ROUND((J80-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J80-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="X80">
-        <f>ROUND((K80-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K80-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="Y80">
-        <f>ROUND((L80-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L80-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="AA80">
@@ -47866,35 +47866,35 @@
         <v>82</v>
       </c>
       <c r="R81">
-        <f>ROUND((E81-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E81-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>20</v>
       </c>
       <c r="S81">
-        <f>ROUND((F81-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F81-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="T81">
-        <f>ROUND((G81-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G81-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="U81">
-        <f>ROUND((H81-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H81-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="V81">
-        <f>ROUND((I81-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I81-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W81">
-        <f>ROUND((J81-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J81-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="X81">
-        <f>ROUND((K81-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K81-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="Y81">
-        <f>ROUND((L81-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L81-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="AA81">
@@ -48016,35 +48016,35 @@
         <v>82</v>
       </c>
       <c r="R82">
-        <f>ROUND((E82-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E82-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>20</v>
       </c>
       <c r="S82">
-        <f>ROUND((F82-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F82-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="T82">
-        <f>ROUND((G82-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G82-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="U82">
-        <f>ROUND((H82-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H82-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="V82">
-        <f>ROUND((I82-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I82-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W82">
-        <f>ROUND((J82-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J82-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="X82">
-        <f>ROUND((K82-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K82-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="Y82">
-        <f>ROUND((L82-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L82-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="AA82">
@@ -48166,35 +48166,35 @@
         <v>82</v>
       </c>
       <c r="R83">
-        <f>ROUND((E83-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E83-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>20</v>
       </c>
       <c r="S83">
-        <f>ROUND((F83-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F83-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="T83">
-        <f>ROUND((G83-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G83-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="U83">
-        <f>ROUND((H83-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H83-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="V83">
-        <f>ROUND((I83-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I83-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W83">
-        <f>ROUND((J83-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J83-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="X83">
-        <f>ROUND((K83-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K83-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="Y83">
-        <f>ROUND((L83-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L83-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="AA83">
@@ -48316,35 +48316,35 @@
         <v>82</v>
       </c>
       <c r="R84">
-        <f>ROUND((E84-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E84-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>20</v>
       </c>
       <c r="S84">
-        <f>ROUND((F84-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F84-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="T84">
-        <f>ROUND((G84-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G84-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="U84">
-        <f>ROUND((H84-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H84-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="V84">
-        <f>ROUND((I84-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I84-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W84">
-        <f>ROUND((J84-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J84-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="X84">
-        <f>ROUND((K84-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K84-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="Y84">
-        <f>ROUND((L84-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L84-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="AA84">
@@ -48466,35 +48466,35 @@
         <v>82</v>
       </c>
       <c r="R85">
-        <f>ROUND((E85-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E85-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>20</v>
       </c>
       <c r="S85">
-        <f>ROUND((F85-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F85-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="T85">
-        <f>ROUND((G85-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G85-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="U85">
-        <f>ROUND((H85-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H85-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="V85">
-        <f>ROUND((I85-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I85-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W85">
-        <f>ROUND((J85-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J85-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="X85">
-        <f>ROUND((K85-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K85-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="Y85">
-        <f>ROUND((L85-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L85-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>8</v>
       </c>
       <c r="AA85">
@@ -48616,35 +48616,35 @@
         <v>83</v>
       </c>
       <c r="R86">
-        <f>ROUND((E86-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E86-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>20</v>
       </c>
       <c r="S86">
-        <f>ROUND((F86-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F86-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="T86">
-        <f>ROUND((G86-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G86-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="U86">
-        <f>ROUND((H86-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H86-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="V86">
-        <f>ROUND((I86-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I86-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W86">
-        <f>ROUND((J86-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J86-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="X86">
-        <f>ROUND((K86-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K86-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="Y86">
-        <f>ROUND((L86-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L86-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="AA86">
@@ -48766,35 +48766,35 @@
         <v>83</v>
       </c>
       <c r="R87">
-        <f>ROUND((E87-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E87-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>21</v>
       </c>
       <c r="S87">
-        <f>ROUND((F87-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F87-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="T87">
-        <f>ROUND((G87-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G87-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="U87">
-        <f>ROUND((H87-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H87-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>13</v>
       </c>
       <c r="V87">
-        <f>ROUND((I87-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I87-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W87">
-        <f>ROUND((J87-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J87-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="X87">
-        <f>ROUND((K87-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K87-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="Y87">
-        <f>ROUND((L87-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L87-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="AA87">
@@ -48916,35 +48916,35 @@
         <v>83</v>
       </c>
       <c r="R88">
-        <f>ROUND((E88-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E88-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>21</v>
       </c>
       <c r="S88">
-        <f>ROUND((F88-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F88-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="T88">
-        <f>ROUND((G88-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G88-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="U88">
-        <f>ROUND((H88-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H88-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="V88">
-        <f>ROUND((I88-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I88-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W88">
-        <f>ROUND((J88-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J88-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="X88">
-        <f>ROUND((K88-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K88-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="Y88">
-        <f>ROUND((L88-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L88-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="AA88">
@@ -49066,35 +49066,35 @@
         <v>83</v>
       </c>
       <c r="R89">
-        <f>ROUND((E89-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E89-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>21</v>
       </c>
       <c r="S89">
-        <f>ROUND((F89-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F89-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="T89">
-        <f>ROUND((G89-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G89-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="U89">
-        <f>ROUND((H89-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H89-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="V89">
-        <f>ROUND((I89-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I89-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W89">
-        <f>ROUND((J89-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J89-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="X89">
-        <f>ROUND((K89-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K89-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="Y89">
-        <f>ROUND((L89-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L89-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="AA89">
@@ -49216,35 +49216,35 @@
         <v>83</v>
       </c>
       <c r="R90">
-        <f>ROUND((E90-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E90-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>21</v>
       </c>
       <c r="S90">
-        <f>ROUND((F90-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F90-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="T90">
-        <f>ROUND((G90-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G90-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="U90">
-        <f>ROUND((H90-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H90-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="V90">
-        <f>ROUND((I90-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I90-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W90">
-        <f>ROUND((J90-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J90-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="X90">
-        <f>ROUND((K90-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K90-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="Y90">
-        <f>ROUND((L90-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L90-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="AA90">
@@ -49366,35 +49366,35 @@
         <v>83</v>
       </c>
       <c r="R91">
-        <f>ROUND((E91-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E91-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>21</v>
       </c>
       <c r="S91">
-        <f>ROUND((F91-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F91-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="T91">
-        <f>ROUND((G91-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G91-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="U91">
-        <f>ROUND((H91-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H91-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="V91">
-        <f>ROUND((I91-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I91-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W91">
-        <f>ROUND((J91-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J91-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="X91">
-        <f>ROUND((K91-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K91-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="Y91">
-        <f>ROUND((L91-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L91-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="AA91">
@@ -49516,35 +49516,35 @@
         <v>84</v>
       </c>
       <c r="R92">
-        <f>ROUND((E92-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E92-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>21</v>
       </c>
       <c r="S92">
-        <f>ROUND((F92-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F92-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="T92">
-        <f>ROUND((G92-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G92-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="U92">
-        <f>ROUND((H92-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H92-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="V92">
-        <f>ROUND((I92-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I92-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W92">
-        <f>ROUND((J92-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J92-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="X92">
-        <f>ROUND((K92-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K92-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="Y92">
-        <f>ROUND((L92-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L92-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="AA92">
@@ -49666,35 +49666,35 @@
         <v>84</v>
       </c>
       <c r="R93">
-        <f>ROUND((E93-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E93-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>22</v>
       </c>
       <c r="S93">
-        <f>ROUND((F93-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F93-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="T93">
-        <f>ROUND((G93-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G93-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="U93">
-        <f>ROUND((H93-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H93-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="V93">
-        <f>ROUND((I93-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I93-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W93">
-        <f>ROUND((J93-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J93-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="X93">
-        <f>ROUND((K93-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K93-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="Y93">
-        <f>ROUND((L93-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L93-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="AA93">
@@ -49816,35 +49816,35 @@
         <v>84</v>
       </c>
       <c r="R94">
-        <f>ROUND((E94-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E94-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>22</v>
       </c>
       <c r="S94">
-        <f>ROUND((F94-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F94-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="T94">
-        <f>ROUND((G94-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G94-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="U94">
-        <f>ROUND((H94-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H94-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="V94">
-        <f>ROUND((I94-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I94-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>6</v>
       </c>
       <c r="W94">
-        <f>ROUND((J94-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J94-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="X94">
-        <f>ROUND((K94-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K94-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="Y94">
-        <f>ROUND((L94-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L94-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="AA94">
@@ -49966,35 +49966,35 @@
         <v>84</v>
       </c>
       <c r="R95">
-        <f>ROUND((E95-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E95-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>22</v>
       </c>
       <c r="S95">
-        <f>ROUND((F95-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F95-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="T95">
-        <f>ROUND((G95-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G95-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="U95">
-        <f>ROUND((H95-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H95-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>14</v>
       </c>
       <c r="V95">
-        <f>ROUND((I95-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I95-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="W95">
-        <f>ROUND((J95-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J95-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="X95">
-        <f>ROUND((K95-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K95-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="Y95">
-        <f>ROUND((L95-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L95-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="AA95">
@@ -50116,35 +50116,35 @@
         <v>84</v>
       </c>
       <c r="R96">
-        <f>ROUND((E96-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E96-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>22</v>
       </c>
       <c r="S96">
-        <f>ROUND((F96-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F96-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="T96">
-        <f>ROUND((G96-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G96-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="U96">
-        <f>ROUND((H96-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H96-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="V96">
-        <f>ROUND((I96-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I96-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="W96">
-        <f>ROUND((J96-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J96-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="X96">
-        <f>ROUND((K96-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K96-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="Y96">
-        <f>ROUND((L96-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L96-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>9</v>
       </c>
       <c r="AA96">
@@ -50266,35 +50266,35 @@
         <v>85</v>
       </c>
       <c r="R97">
-        <f>ROUND((E97-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E97-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>22</v>
       </c>
       <c r="S97">
-        <f>ROUND((F97-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F97-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="T97">
-        <f>ROUND((G97-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G97-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="U97">
-        <f>ROUND((H97-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H97-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="V97">
-        <f>ROUND((I97-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I97-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="W97">
-        <f>ROUND((J97-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J97-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="X97">
-        <f>ROUND((K97-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K97-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="Y97">
-        <f>ROUND((L97-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L97-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="AA97">
@@ -50416,35 +50416,35 @@
         <v>85</v>
       </c>
       <c r="R98">
-        <f>ROUND((E98-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E98-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>22</v>
       </c>
       <c r="S98">
-        <f>ROUND((F98-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F98-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="T98">
-        <f>ROUND((G98-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G98-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="U98">
-        <f>ROUND((H98-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H98-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="V98">
-        <f>ROUND((I98-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I98-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="W98">
-        <f>ROUND((J98-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J98-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="X98">
-        <f>ROUND((K98-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K98-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="Y98">
-        <f>ROUND((L98-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L98-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="AA98">
@@ -50566,35 +50566,35 @@
         <v>85</v>
       </c>
       <c r="R99">
-        <f>ROUND((E99-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E99-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>22</v>
       </c>
       <c r="S99">
-        <f>ROUND((F99-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F99-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="T99">
-        <f>ROUND((G99-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G99-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="U99">
-        <f>ROUND((H99-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H99-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="V99">
-        <f>ROUND((I99-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I99-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="W99">
-        <f>ROUND((J99-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J99-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="X99">
-        <f>ROUND((K99-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K99-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>17</v>
       </c>
       <c r="Y99">
-        <f>ROUND((L99-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L99-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="AA99">
@@ -50716,35 +50716,35 @@
         <v>85</v>
       </c>
       <c r="R100">
-        <f>ROUND((E100-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E100-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>22</v>
       </c>
       <c r="S100">
-        <f>ROUND((F100-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F100-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="T100">
-        <f>ROUND((G100-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G100-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="U100">
-        <f>ROUND((H100-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H100-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="V100">
-        <f>ROUND((I100-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I100-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="W100">
-        <f>ROUND((J100-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J100-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="X100">
-        <f>ROUND((K100-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K100-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="Y100">
-        <f>ROUND((L100-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L100-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="AA100">
@@ -50866,35 +50866,35 @@
         <v>85</v>
       </c>
       <c r="R101">
-        <f>ROUND((E101-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E101-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>22</v>
       </c>
       <c r="S101">
-        <f>ROUND((F101-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F101-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="T101">
-        <f>ROUND((G101-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G101-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="U101">
-        <f>ROUND((H101-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H101-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="V101">
-        <f>ROUND((I101-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I101-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="W101">
-        <f>ROUND((J101-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J101-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="X101">
-        <f>ROUND((K101-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K101-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="Y101">
-        <f>ROUND((L101-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L101-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="AA101">
@@ -51016,35 +51016,35 @@
         <v>85</v>
       </c>
       <c r="R102">
-        <f>ROUND((E102-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E102-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>22</v>
       </c>
       <c r="S102">
-        <f>ROUND((F102-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F102-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="T102">
-        <f>ROUND((G102-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G102-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="U102">
-        <f>ROUND((H102-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H102-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>15</v>
       </c>
       <c r="V102">
-        <f>ROUND((I102-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I102-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="W102">
-        <f>ROUND((J102-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J102-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="X102">
-        <f>ROUND((K102-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K102-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="Y102">
-        <f>ROUND((L102-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L102-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="AA102">
@@ -51166,35 +51166,35 @@
         <v>86</v>
       </c>
       <c r="R103">
-        <f>ROUND((E103-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E103-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>22</v>
       </c>
       <c r="S103">
-        <f>ROUND((F103-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F103-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="T103">
-        <f>ROUND((G103-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G103-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="U103">
-        <f>ROUND((H103-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H103-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="V103">
-        <f>ROUND((I103-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I103-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="W103">
-        <f>ROUND((J103-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J103-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="X103">
-        <f>ROUND((K103-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K103-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="Y103">
-        <f>ROUND((L103-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L103-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="AA103">
@@ -51316,35 +51316,35 @@
         <v>86</v>
       </c>
       <c r="R104">
-        <f>ROUND((E104-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((E104-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>22</v>
       </c>
       <c r="S104">
-        <f>ROUND((F104-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((F104-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="T104">
-        <f>ROUND((G104-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((G104-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!T$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="U104">
-        <f>ROUND((H104-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((H104-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!U$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>16</v>
       </c>
       <c r="V104">
-        <f>ROUND((I104-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((I104-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!V$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>7</v>
       </c>
       <c r="W104">
-        <f>ROUND((J104-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((J104-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!W$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="X104">
-        <f>ROUND((K104-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((K104-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!X$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>18</v>
       </c>
       <c r="Y104">
-        <f>ROUND((L104-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Races!$C$2:$J$2,0)),0)</f>
+        <f>ROUND((L104-$E$3)/2+INDEX(Heritage!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Heritage!$A$3:$A$14,0),MATCH('Stat Growth'!Y$2,Heritage!$C$2:$J$2,0)),0)</f>
         <v>10</v>
       </c>
       <c r="AA104">
@@ -51435,7 +51435,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Races!$A$3:$A$14</xm:f>
+            <xm:f>Heritage!$A$3:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
@@ -51477,15 +51477,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="C1" t="s">
         <v>133</v>
@@ -51587,7 +51587,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -51665,7 +51665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -52225,21 +52225,21 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="C2" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -52250,7 +52250,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -52264,7 +52264,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -52278,7 +52278,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -52292,10 +52292,10 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -52329,7 +52329,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -52349,7 +52349,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H9" t="s">
         <v>129</v>
@@ -52401,13 +52401,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
         <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -54944,13 +54944,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>223</v>
-      </c>
-      <c r="C1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -54958,10 +54958,10 @@
         <v>401</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
